--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>37</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>11</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>14</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>5</x:v>
@@ -1890,16 +1890,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -1942,7 +1942,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>16</x:v>
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2254,7 +2254,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
         <x:v>2</x:v>
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>8</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>6</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>4</x:v>
@@ -2569,13 +2569,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>7</x:v>
@@ -2800,7 +2800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>6</x:v>
@@ -2956,7 +2956,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F86" s="0" t="n">
         <x:v>0</x:v>
@@ -3008,16 +3008,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>37</x:v>
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>16</x:v>
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>1</x:v>
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>5</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>5</x:v>
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>13</x:v>
@@ -2254,7 +2254,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
         <x:v>2</x:v>
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>4</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>6</x:v>
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2878,7 +2878,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
         <x:v>0</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>19</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>14</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -957,13 +957,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1113,13 +1113,13 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1165,13 +1165,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1191,13 +1191,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1552,7 +1552,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>3</x:v>
@@ -1685,13 +1685,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1711,13 +1711,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1786,16 +1786,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1890,16 +1890,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2283,13 +2283,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:8">
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>2</x:v>
@@ -2332,16 +2332,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2465,13 +2465,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2488,7 +2488,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
         <x:v>2</x:v>
@@ -2592,16 +2592,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2621,13 +2621,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2725,13 +2725,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>3</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1165,13 +1165,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>16</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>6</x:v>
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>1</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>7</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>6</x:v>
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>5</x:v>
@@ -1760,7 +1760,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>2</x:v>
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>14</x:v>
@@ -2020,7 +2020,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>0</x:v>
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>2</x:v>
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>2</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>2</x:v>
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>8</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>7</x:v>
@@ -2514,7 +2514,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
         <x:v>4</x:v>
@@ -2566,16 +2566,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>8</x:v>
@@ -2670,7 +2670,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
         <x:v>3</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>5</x:v>
@@ -2748,7 +2748,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
         <x:v>5</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>4</x:v>
@@ -2878,7 +2878,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
         <x:v>0</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1084,7 +1084,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>0</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>40</x:v>
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>13</x:v>
@@ -1370,7 +1370,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>1</x:v>
@@ -1422,7 +1422,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>1</x:v>
@@ -1474,16 +1474,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,16 +1708,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>5</x:v>
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>7</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>1</x:v>
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>5</x:v>
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>2</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>4</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>7</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>40</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>13</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>15</x:v>
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>8</x:v>
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>7</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>1</x:v>
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>5</x:v>
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2020,7 +2020,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>0</x:v>
@@ -2384,16 +2384,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>4</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>7</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>8</x:v>
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>4</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>5</x:v>
@@ -2878,16 +2878,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H83" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:8">
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>4</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -798,16 +798,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -876,7 +876,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>0</x:v>
@@ -928,7 +928,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>1</x:v>
@@ -1113,13 +1113,13 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1217,13 +1217,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1344,16 +1344,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1396,16 +1396,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1422,16 +1422,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>6</x:v>
@@ -1604,16 +1604,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>9</x:v>
@@ -1711,13 +1711,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1734,16 +1734,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:8">
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>8</x:v>
@@ -1812,16 +1812,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1841,13 +1841,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2020,16 +2020,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2280,16 +2280,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:8">
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>2</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>2</x:v>
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>11</x:v>
@@ -2413,13 +2413,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>8</x:v>
@@ -2462,16 +2462,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>4</x:v>
@@ -2566,16 +2566,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2595,13 +2595,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2618,7 +2618,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
         <x:v>4</x:v>
@@ -2670,7 +2670,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
         <x:v>3</x:v>
@@ -2696,16 +2696,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2722,16 +2722,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>4</x:v>
@@ -2930,16 +2930,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G85" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:8">
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>4</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>14</x:v>
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>0</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>15</x:v>
@@ -1370,16 +1370,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1396,7 +1396,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>7</x:v>
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>3</x:v>
@@ -1474,16 +1474,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>4</x:v>
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>2</x:v>
@@ -2387,13 +2387,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2410,16 +2410,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>10</x:v>
@@ -2670,7 +2670,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
         <x:v>3</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>4</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -902,7 +902,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>1</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>24</x:v>
@@ -1240,7 +1240,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
         <x:v>1</x:v>
@@ -1630,7 +1630,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
         <x:v>1</x:v>
@@ -1659,13 +1659,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1708,16 +1708,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1734,16 +1734,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:8">
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>4</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>14</x:v>
@@ -824,16 +824,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>43</x:v>
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1318,7 +1318,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
         <x:v>0</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>6</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>18</x:v>
@@ -1812,16 +1812,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1864,7 +1864,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
         <x:v>6</x:v>
@@ -2046,7 +2046,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
         <x:v>3</x:v>
@@ -2306,16 +2306,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>2</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>2</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>9</x:v>
@@ -2488,7 +2488,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
         <x:v>2</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>8</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>4</x:v>
@@ -2800,7 +2800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>6</x:v>
@@ -2829,13 +2829,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:8">
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>4</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -850,7 +850,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>0</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>43</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>15</x:v>
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>5</x:v>
@@ -1864,7 +1864,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
         <x:v>6</x:v>
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>17</x:v>
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>2</x:v>
@@ -2465,13 +2465,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>7</x:v>
@@ -2852,7 +2852,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
         <x:v>2</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>43</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>9</x:v>
@@ -1760,7 +1760,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>2</x:v>
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>8</x:v>
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>3</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>2</x:v>
@@ -2488,16 +2488,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H68" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:8">
@@ -2748,7 +2748,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
         <x:v>5</x:v>
@@ -2878,7 +2878,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
         <x:v>1</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -980,7 +980,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>0</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1370,7 +1370,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>3</x:v>
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>2</x:v>
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -2020,7 +2020,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>1</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>2</x:v>
@@ -2540,16 +2540,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>10</x:v>
@@ -2592,16 +2592,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>4</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>4</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -824,16 +824,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>44</x:v>
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1266,7 +1266,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
         <x:v>0</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>18</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>9</x:v>
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>7</x:v>
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>8</x:v>
@@ -1864,16 +1864,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1916,16 +1916,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>2</x:v>
@@ -2800,16 +2800,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -928,7 +928,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>1</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>25</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>17</x:v>
@@ -1396,7 +1396,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>7</x:v>
@@ -1474,16 +1474,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1760,16 +1760,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>8</x:v>
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>7</x:v>
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>18</x:v>
@@ -2020,7 +2020,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>1</x:v>
@@ -2098,7 +2098,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
         <x:v>1</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>2</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>10</x:v>
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>10</x:v>
@@ -3008,16 +3008,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>4</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>25</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>17</x:v>
@@ -1344,7 +1344,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>6</x:v>
@@ -1396,16 +1396,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1500,7 +1500,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
         <x:v>0</x:v>
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>2</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>18</x:v>
@@ -1760,7 +1760,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>3</x:v>
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>18</x:v>
@@ -2254,7 +2254,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
         <x:v>2</x:v>
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>6</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>10</x:v>
@@ -2488,7 +2488,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
         <x:v>3</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>6</x:v>
@@ -2592,16 +2592,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>4</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>8</x:v>
@@ -2904,7 +2904,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E84" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
         <x:v>1</x:v>
@@ -2982,16 +2982,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -775,13 +775,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>2</x:v>
@@ -853,13 +853,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -905,13 +905,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -928,16 +928,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -1113,13 +1113,13 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>25</x:v>
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>17</x:v>
@@ -1269,13 +1269,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8">
@@ -1347,13 +1347,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1370,16 +1370,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1451,13 +1451,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>6</x:v>
@@ -1633,13 +1633,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8">
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>18</x:v>
@@ -1685,13 +1685,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1737,13 +1737,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:8">
@@ -1763,13 +1763,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1812,16 +1812,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1893,13 +1893,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -1945,13 +1945,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2075,13 +2075,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:8">
@@ -2254,7 +2254,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
         <x:v>2</x:v>
@@ -2283,13 +2283,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:8">
@@ -2306,16 +2306,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2335,13 +2335,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2361,13 +2361,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2439,13 +2439,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2465,13 +2465,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2517,13 +2517,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H69" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:8">
@@ -2595,13 +2595,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2618,16 +2618,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2699,13 +2699,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2725,13 +2725,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2748,7 +2748,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
         <x:v>5</x:v>
@@ -2777,13 +2777,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -3034,16 +3034,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -798,7 +798,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>7</x:v>
@@ -876,7 +876,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>0</x:v>
@@ -928,7 +928,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>2</x:v>
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>3</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>109</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>22</x:v>
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>17</x:v>
@@ -1344,7 +1344,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>7</x:v>
@@ -1373,13 +1373,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1422,16 +1422,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1526,16 +1526,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8">
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>6</x:v>
@@ -1659,13 +1659,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1786,16 +1786,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1890,7 +1890,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
         <x:v>9</x:v>
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>7</x:v>
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>2</x:v>
@@ -2254,16 +2254,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:8">
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>3</x:v>
@@ -2436,16 +2436,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>15</x:v>
@@ -2540,16 +2540,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>10</x:v>
@@ -2618,7 +2618,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
         <x:v>5</x:v>
@@ -2673,13 +2673,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:8">
@@ -2852,7 +2852,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
         <x:v>2</x:v>
@@ -2904,7 +2904,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E84" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
         <x:v>1</x:v>
@@ -3008,16 +3008,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">
@@ -3037,13 +3037,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -775,13 +775,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -798,16 +798,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>3</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1136,16 +1136,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1347,13 +1347,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1474,16 +1474,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>2</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>13</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>9</x:v>
@@ -1760,7 +1760,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>5</x:v>
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>6</x:v>
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>8</x:v>
@@ -1942,7 +1942,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>22</x:v>
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>7</x:v>
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2150,7 +2150,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
         <x:v>1</x:v>
@@ -2228,7 +2228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
         <x:v>2</x:v>
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>5</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>3</x:v>
@@ -2410,16 +2410,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>15</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>7</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>10</x:v>
@@ -2592,16 +2592,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>9</x:v>
@@ -2725,13 +2725,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2748,16 +2748,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>5</x:v>
@@ -2800,16 +2800,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:8">
@@ -2930,7 +2930,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F85" s="0" t="n">
         <x:v>1</x:v>
@@ -2982,7 +2982,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
         <x:v>2</x:v>
@@ -3011,13 +3011,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>8</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>24</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>20</x:v>
@@ -1942,7 +1942,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>22</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>8</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -798,7 +798,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>8</x:v>
@@ -827,13 +827,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -931,13 +931,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -954,16 +954,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -983,13 +983,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -1035,13 +1035,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1165,13 +1165,13 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1217,13 +1217,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1347,13 +1347,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1399,13 +1399,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1448,16 +1448,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1477,13 +1477,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1503,13 +1503,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H30" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8">
@@ -1604,16 +1604,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1737,13 +1737,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:8">
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>9</x:v>
@@ -1815,13 +1815,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1841,13 +1841,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1867,13 +1867,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1890,16 +1890,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -1916,16 +1916,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1945,13 +1945,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1971,13 +1971,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2049,13 +2049,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:8">
@@ -2153,13 +2153,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H55" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:8">
@@ -2176,16 +2176,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H56" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:8">
@@ -2257,13 +2257,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:8">
@@ -2309,13 +2309,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2332,16 +2332,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2361,13 +2361,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2384,16 +2384,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2413,13 +2413,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2439,13 +2439,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2462,16 +2462,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2491,13 +2491,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H68" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:8">
@@ -2517,13 +2517,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H69" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:8">
@@ -2543,13 +2543,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2592,16 +2592,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2621,13 +2621,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>4</x:v>
@@ -2673,13 +2673,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:8">
@@ -2699,13 +2699,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2725,13 +2725,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2826,16 +2826,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F81" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:8">
@@ -2907,13 +2907,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G84" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H84" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:8">
@@ -3037,13 +3037,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -954,16 +954,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>59</x:v>
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1396,7 +1396,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>9</x:v>
@@ -1555,13 +1555,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
@@ -1607,13 +1607,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>23</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>9</x:v>
@@ -1786,16 +1786,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1812,16 +1812,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1890,7 +1890,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
         <x:v>10</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>4</x:v>
@@ -2098,16 +2098,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H53" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:8">
@@ -2228,7 +2228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
         <x:v>2</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>4</x:v>
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>8</x:v>
@@ -2436,16 +2436,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2517,13 +2517,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H69" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:8">
@@ -2566,16 +2566,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>4</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>10</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>12</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>8</x:v>
@@ -2800,7 +2800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>6</x:v>
@@ -2826,7 +2826,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
         <x:v>3</x:v>
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>7</x:v>
@@ -3034,16 +3034,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>31</x:v>
@@ -1474,16 +1474,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1526,16 +1526,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8">
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>6</x:v>
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>9</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>4</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>9</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>10</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>12</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>5</x:v>
@@ -2150,7 +2150,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
         <x:v>2</x:v>
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>8</x:v>
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>12</x:v>
@@ -2982,7 +2982,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
         <x:v>2</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -775,13 +775,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -1113,13 +1113,13 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>31</x:v>
@@ -1500,7 +1500,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
         <x:v>1</x:v>
@@ -1581,13 +1581,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>23</x:v>
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>9</x:v>
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>10</x:v>
@@ -2283,13 +2283,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:8">
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>4</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>4</x:v>
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>14</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>17</x:v>
@@ -2543,13 +2543,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2618,7 +2618,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
         <x:v>6</x:v>
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>4</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>10</x:v>
@@ -2748,16 +2748,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2777,13 +2777,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -3011,13 +3011,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>22</x:v>
@@ -902,7 +902,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>2</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>61</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>36</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>31</x:v>
@@ -1318,7 +1318,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
         <x:v>0</x:v>
@@ -1344,7 +1344,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>9</x:v>
@@ -1370,7 +1370,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>5</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>23</x:v>
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>10</x:v>
@@ -1786,16 +1786,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1838,16 +1838,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>10</x:v>
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>6</x:v>
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>14</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>11</x:v>
@@ -2670,7 +2670,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
         <x:v>5</x:v>
@@ -2748,7 +2748,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
         <x:v>7</x:v>
@@ -2800,7 +2800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>6</x:v>
@@ -2826,7 +2826,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
         <x:v>3</x:v>
@@ -2852,7 +2852,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
         <x:v>2</x:v>
@@ -2878,7 +2878,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
         <x:v>1</x:v>
@@ -2982,7 +2982,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
         <x:v>2</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -798,7 +798,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>8</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>61</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>36</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>31</x:v>
@@ -1396,7 +1396,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>9</x:v>
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>5</x:v>
@@ -1604,16 +1604,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>9</x:v>
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>9</x:v>
@@ -1916,16 +1916,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1942,7 +1942,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>27</x:v>
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>28</x:v>
@@ -2020,16 +2020,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2150,7 +2150,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
         <x:v>2</x:v>
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>6</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>4</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>4</x:v>
@@ -2514,7 +2514,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
         <x:v>7</x:v>
@@ -2540,16 +2540,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>4</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>12</x:v>
@@ -2748,16 +2748,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1786,16 +1786,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>28</x:v>
@@ -2176,7 +2176,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
         <x:v>2</x:v>
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>14</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>12</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>9</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>22</x:v>
@@ -931,13 +931,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -1347,13 +1347,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1373,13 +1373,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1448,16 +1448,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1659,13 +1659,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>9</x:v>
@@ -1890,7 +1890,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
         <x:v>10</x:v>
@@ -1919,13 +1919,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>28</x:v>
@@ -2361,13 +2361,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>8</x:v>
@@ -2439,13 +2439,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2462,16 +2462,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>12</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>11</x:v>
@@ -2595,13 +2595,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>10</x:v>
@@ -2722,16 +2722,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>9</x:v>
@@ -2800,7 +2800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>6</x:v>
@@ -2829,13 +2829,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:8">
@@ -2852,7 +2852,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
         <x:v>2</x:v>
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>8</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>22</x:v>
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>3</x:v>
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>5</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>31</x:v>
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>20</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>7</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>16</x:v>
@@ -1734,16 +1734,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:8">
@@ -1838,16 +1838,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -2020,7 +2020,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>2</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>10</x:v>
@@ -2748,16 +2748,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>9</x:v>
@@ -2852,7 +2852,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
         <x:v>2</x:v>
@@ -2878,7 +2878,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
         <x:v>1</x:v>
@@ -2982,7 +2982,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
         <x:v>2</x:v>
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>8</x:v>
@@ -3034,16 +3034,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>22</x:v>
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>3</x:v>
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>5</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>63</x:v>
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>31</x:v>
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>20</x:v>
@@ -1396,7 +1396,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>9</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>25</x:v>
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>16</x:v>
@@ -1760,16 +1760,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>28</x:v>
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>6</x:v>
@@ -2332,16 +2332,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>14</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>18</x:v>
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>15</x:v>
@@ -2618,7 +2618,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
         <x:v>6</x:v>
@@ -2722,16 +2722,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2826,7 +2826,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
         <x:v>4</x:v>
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>8</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>63</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>9</x:v>
@@ -2176,7 +2176,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
         <x:v>2</x:v>
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>14</x:v>
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>8</x:v>
@@ -2514,7 +2514,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
         <x:v>7</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>10</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>10</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>22</x:v>
@@ -798,7 +798,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>8</x:v>
@@ -1113,13 +1113,13 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>31</x:v>
@@ -1422,16 +1422,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1474,16 +1474,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>25</x:v>
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>9</x:v>
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>12</x:v>
@@ -1841,13 +1841,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1864,7 +1864,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
         <x:v>8</x:v>
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -2020,7 +2020,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>2</x:v>
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>6</x:v>
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>14</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>12</x:v>
@@ -2569,13 +2569,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2699,13 +2699,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2751,13 +2751,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2930,16 +2930,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F85" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G85" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H85" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>3</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1136,7 +1136,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>3</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>37</x:v>
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>20</x:v>
@@ -1240,7 +1240,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
         <x:v>1</x:v>
@@ -1344,7 +1344,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>10</x:v>
@@ -1474,7 +1474,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
         <x:v>8</x:v>
@@ -1526,16 +1526,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F31" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="G31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8">
@@ -1552,7 +1552,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>4</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>7</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>18</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>9</x:v>
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>11</x:v>
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>12</x:v>
@@ -1812,16 +1812,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1916,7 +1916,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>6</x:v>
@@ -1942,7 +1942,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>27</x:v>
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>28</x:v>
@@ -2020,7 +2020,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>2</x:v>
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>6</x:v>
@@ -2332,16 +2332,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>5</x:v>
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>8</x:v>
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>15</x:v>
@@ -2670,7 +2670,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
         <x:v>5</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>14</x:v>
@@ -2748,7 +2748,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
         <x:v>12</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>9</x:v>
@@ -2826,7 +2826,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
         <x:v>4</x:v>
@@ -2852,7 +2852,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
         <x:v>2</x:v>
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>8</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>22</x:v>
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>3</x:v>
@@ -980,7 +980,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>1</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>66</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>37</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>32</x:v>
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>20</x:v>
@@ -1396,7 +1396,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>9</x:v>
@@ -1451,13 +1451,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1474,7 +1474,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
         <x:v>8</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>7</x:v>
@@ -1630,7 +1630,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
         <x:v>2</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>18</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>9</x:v>
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>11</x:v>
@@ -1760,16 +1760,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1786,16 +1786,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1864,7 +1864,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
         <x:v>8</x:v>
@@ -1890,7 +1890,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
         <x:v>10</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>6</x:v>
@@ -1942,7 +1942,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>27</x:v>
@@ -2020,16 +2020,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>8</x:v>
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>14</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>18</x:v>
@@ -2514,7 +2514,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
         <x:v>7</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>12</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>12</x:v>
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>15</x:v>
@@ -2618,7 +2618,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
         <x:v>6</x:v>
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>4</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>11</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>14</x:v>
@@ -2748,7 +2748,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
         <x:v>12</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>9</x:v>
@@ -2800,7 +2800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>6</x:v>
@@ -2878,7 +2878,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
         <x:v>1</x:v>
@@ -2982,7 +2982,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
         <x:v>2</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>10</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -980,7 +980,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>1</x:v>
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>7</x:v>
@@ -1578,16 +1578,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>18</x:v>
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>6</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>18</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>14</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>9</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>5</x:v>
@@ -1032,7 +1032,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>1</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>32</x:v>
@@ -1552,7 +1552,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>4</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>27</x:v>
@@ -1942,7 +1942,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>27</x:v>
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>28</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>5</x:v>
@@ -2540,16 +2540,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2725,13 +2725,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>37</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>32</x:v>
@@ -1474,7 +1474,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
         <x:v>8</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1838,16 +1838,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1864,7 +1864,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
         <x:v>8</x:v>
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>6</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>5</x:v>
@@ -2514,7 +2514,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
         <x:v>7</x:v>
@@ -2696,16 +2696,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>5</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1165,13 +1165,13 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>8</x:v>
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>18</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>6</x:v>
@@ -2488,7 +2488,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
         <x:v>5</x:v>
@@ -2618,7 +2618,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
         <x:v>6</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>38</x:v>
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>20</x:v>
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -2439,13 +2439,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>13</x:v>
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>15</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>15</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>22</x:v>
@@ -798,7 +798,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>8</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>38</x:v>
@@ -1344,7 +1344,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>10</x:v>
@@ -2150,7 +2150,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
         <x:v>2</x:v>
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>6</x:v>
@@ -2332,16 +2332,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>5</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>13</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>12</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>10</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>22</x:v>
@@ -928,7 +928,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>5</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>67</x:v>
@@ -1344,16 +1344,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>28</x:v>
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>19</x:v>
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>13</x:v>
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>11</x:v>
@@ -2020,16 +2020,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>18</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>13</x:v>
@@ -2618,16 +2618,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -798,7 +798,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>8</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>32</x:v>
@@ -1526,16 +1526,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>9</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>5</x:v>
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>15</x:v>
@@ -2618,7 +2618,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
         <x:v>7</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>12</x:v>
@@ -2956,16 +2956,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F86" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="G86" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H86" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>7</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -775,13 +775,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -798,16 +798,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -827,13 +827,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -957,13 +957,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1165,13 +1165,13 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1347,13 +1347,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1477,13 +1477,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1659,13 +1659,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1760,7 +1760,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>7</x:v>
@@ -1789,13 +1789,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1815,13 +1815,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1890,16 +1890,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>11</x:v>
@@ -1997,13 +1997,13 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2023,13 +2023,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2098,7 +2098,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
         <x:v>2</x:v>
@@ -2332,16 +2332,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2361,13 +2361,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2439,13 +2439,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2488,16 +2488,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H68" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:8">
@@ -2517,13 +2517,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H69" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:8">
@@ -2540,16 +2540,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>12</x:v>
@@ -2696,16 +2696,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>15</x:v>
@@ -2748,16 +2748,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -3011,13 +3011,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -798,7 +798,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>9</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>39</x:v>
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1370,7 +1370,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>6</x:v>
@@ -1396,7 +1396,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>9</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1760,7 +1760,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>7</x:v>
@@ -1864,16 +1864,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -2020,7 +2020,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>5</x:v>
@@ -2046,7 +2046,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
         <x:v>4</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>14</x:v>
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>15</x:v>
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2800,7 +2800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>6</x:v>
@@ -3034,16 +3034,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -850,16 +850,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -1136,7 +1136,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>3</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>39</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>35</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>8</x:v>
@@ -1607,13 +1607,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>14</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>6</x:v>
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -2046,7 +2046,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
         <x:v>4</x:v>
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>6</x:v>
@@ -2306,16 +2306,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2358,16 +2358,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>16</x:v>
@@ -2488,16 +2488,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H68" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:8">
@@ -2592,16 +2592,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>13</x:v>
@@ -2982,16 +2982,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>39</x:v>
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>14</x:v>
@@ -2436,16 +2436,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>11</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -801,13 +801,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -827,13 +827,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -957,13 +957,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1113,13 +1113,13 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>20</x:v>
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>7</x:v>
@@ -1630,7 +1630,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
         <x:v>2</x:v>
@@ -1659,13 +1659,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1685,13 +1685,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>9</x:v>
@@ -1867,13 +1867,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -2049,13 +2049,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:8">
@@ -2254,16 +2254,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:8">
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>7</x:v>
@@ -2335,13 +2335,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>7</x:v>
@@ -2540,16 +2540,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2618,7 +2618,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
         <x:v>7</x:v>
@@ -2699,13 +2699,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2748,16 +2748,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2826,7 +2826,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
         <x:v>4</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -928,16 +928,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -1165,13 +1165,13 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>37</x:v>
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>20</x:v>
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>7</x:v>
@@ -1578,16 +1578,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>6</x:v>
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>20</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>9</x:v>
@@ -1760,16 +1760,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>14</x:v>
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -2020,7 +2020,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>5</x:v>
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>2</x:v>
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>16</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>10</x:v>
@@ -2826,7 +2826,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
         <x:v>4</x:v>
@@ -2878,16 +2878,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H83" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:8">
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>9</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>23</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>42</x:v>
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>20</x:v>
@@ -1396,16 +1396,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>33</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>9</x:v>
@@ -1734,16 +1734,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:8">
@@ -1760,16 +1760,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>13</x:v>
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>30</x:v>
@@ -2072,7 +2072,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
         <x:v>1</x:v>
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>2</x:v>
@@ -2462,16 +2462,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>16</x:v>
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2852,7 +2852,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
         <x:v>2</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>11</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1604,16 +1604,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -2358,16 +2358,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>16</x:v>
@@ -2930,16 +2930,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F85" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G85" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H85" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>5</x:v>
@@ -931,13 +931,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>7</x:v>
@@ -1113,13 +1113,13 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1240,7 +1240,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
         <x:v>1</x:v>
@@ -1373,13 +1373,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1396,16 +1396,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1451,13 +1451,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1578,16 +1578,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1685,13 +1685,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,16 +1708,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1737,13 +1737,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:8">
@@ -1760,7 +1760,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>9</x:v>
@@ -1890,7 +1890,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
         <x:v>11</x:v>
@@ -1916,16 +1916,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>12</x:v>
@@ -2205,13 +2205,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:8">
@@ -2280,16 +2280,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:8">
@@ -2618,16 +2618,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2647,13 +2647,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:8">
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>15</x:v>
@@ -2777,13 +2777,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2829,13 +2829,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>74</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>42</x:v>
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>8</x:v>
@@ -1474,7 +1474,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
         <x:v>9</x:v>
@@ -1578,16 +1578,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>34</x:v>
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>14</x:v>
@@ -2358,16 +2358,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>14</x:v>
@@ -2462,16 +2462,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>12</x:v>
@@ -2618,7 +2618,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
         <x:v>9</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>16</x:v>
@@ -2722,16 +2722,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2852,7 +2852,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
         <x:v>2</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>5</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>42</x:v>
@@ -1370,7 +1370,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>7</x:v>
@@ -1396,7 +1396,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>11</x:v>
@@ -1552,7 +1552,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>4</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>11</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1812,16 +1812,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2150,7 +2150,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
         <x:v>2</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>10</x:v>
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>14</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>16</x:v>
@@ -2852,7 +2852,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
         <x:v>2</x:v>
@@ -2930,16 +2930,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F85" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G85" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H85" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:8">
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>9</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>42</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -801,13 +801,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -876,16 +876,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1448,16 +1448,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1474,16 +1474,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1552,7 +1552,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>4</x:v>
@@ -1659,13 +1659,13 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1685,13 +1685,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,16 +1708,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>11</x:v>
@@ -1864,16 +1864,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1971,13 +1971,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2254,16 +2254,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:8">
@@ -2309,13 +2309,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2387,13 +2387,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2621,13 +2621,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2751,13 +2751,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2852,7 +2852,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
         <x:v>2</x:v>
@@ -3011,13 +3011,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -798,7 +798,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>12</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>75</x:v>
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1552,7 +1552,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>4</x:v>
@@ -1711,13 +1711,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>11</x:v>
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>13</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>7</x:v>
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>8</x:v>
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>15</x:v>
@@ -2540,16 +2540,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2618,16 +2618,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2748,16 +2748,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>12</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>42</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>37</x:v>
@@ -1890,16 +1890,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -1971,13 +1971,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>32</x:v>
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>15</x:v>
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>17</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>17</x:v>
@@ -2618,7 +2618,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
         <x:v>11</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>16</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>12</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -928,7 +928,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>7</x:v>
@@ -1136,7 +1136,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>3</x:v>
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>9</x:v>
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>7</x:v>
@@ -2566,16 +2566,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>16</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>11</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -798,16 +798,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -876,16 +876,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -1165,13 +1165,13 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>37</x:v>
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>13</x:v>
@@ -1815,13 +1815,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1971,13 +1971,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>32</x:v>
@@ -2046,7 +2046,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
         <x:v>5</x:v>
@@ -2124,7 +2124,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
         <x:v>0</x:v>
@@ -2280,16 +2280,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:8">
@@ -2387,13 +2387,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -798,7 +798,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>11</x:v>
@@ -850,7 +850,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>2</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>43</x:v>
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>24</x:v>
@@ -1604,16 +1604,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>37</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>14</x:v>
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>14</x:v>
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>17</x:v>
@@ -2439,13 +2439,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>17</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>13</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>16</x:v>
@@ -2826,7 +2826,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
         <x:v>5</x:v>
@@ -2904,7 +2904,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E84" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
         <x:v>2</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>76</x:v>
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>24</x:v>
@@ -1370,16 +1370,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1864,7 +1864,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
         <x:v>11</x:v>
@@ -1942,7 +1942,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>31</x:v>
@@ -1971,13 +1971,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>3</x:v>
@@ -2696,16 +2696,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>11</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>11</x:v>
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>19</x:v>
@@ -2540,16 +2540,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>17</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>16</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>13</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -954,16 +954,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1191,13 +1191,13 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>13</x:v>
@@ -1942,7 +1942,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>31</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1659,13 +1659,13 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>14</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>7</x:v>
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>8</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>9</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>16</x:v>
@@ -2826,16 +2826,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>24</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>43</x:v>
@@ -1552,7 +1552,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>4</x:v>
@@ -2722,16 +2722,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>24</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>11</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>14</x:v>
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>13</x:v>
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>32</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1165,13 +1165,13 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>24</x:v>
@@ -1370,7 +1370,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>8</x:v>
@@ -1422,7 +1422,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>2</x:v>
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>14</x:v>
@@ -1864,7 +1864,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
         <x:v>11</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>43</x:v>
@@ -1552,7 +1552,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>4</x:v>
@@ -1630,7 +1630,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
         <x:v>2</x:v>
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>23</x:v>
@@ -2020,16 +2020,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2046,7 +2046,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
         <x:v>5</x:v>
@@ -2358,16 +2358,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2982,7 +2982,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
         <x:v>3</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>9</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>14</x:v>
@@ -3034,16 +3034,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -853,13 +853,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -1113,13 +1113,13 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1165,13 +1165,13 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1191,13 +1191,13 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1370,7 +1370,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>8</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1711,13 +1711,13 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1789,13 +1789,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1815,13 +1815,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1841,13 +1841,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1867,13 +1867,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1942,7 +1942,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>32</x:v>
@@ -1997,13 +1997,13 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2023,13 +2023,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2046,16 +2046,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:8">
@@ -2127,13 +2127,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:8">
@@ -2309,13 +2309,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2384,16 +2384,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>18</x:v>
@@ -2592,16 +2592,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2725,13 +2725,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2907,13 +2907,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G84" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H84" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:8">
@@ -3034,16 +3034,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>24</x:v>
@@ -798,7 +798,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>11</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>78</x:v>
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>8</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>40</x:v>
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>5</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -798,16 +798,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1240,7 +1240,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
         <x:v>1</x:v>
@@ -1422,7 +1422,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>2</x:v>
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>13</x:v>
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>15</x:v>
@@ -1916,16 +1916,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>34</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>10</x:v>
@@ -2436,16 +2436,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2800,7 +2800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>6</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>13</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>18</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -775,13 +775,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -801,13 +801,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -928,7 +928,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>7</x:v>
@@ -1113,13 +1113,13 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1139,13 +1139,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -1165,13 +1165,13 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1191,13 +1191,13 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1217,13 +1217,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1240,16 +1240,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
@@ -1370,7 +1370,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>8</x:v>
@@ -1425,13 +1425,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1451,13 +1451,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1737,13 +1737,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:8">
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>15</x:v>
@@ -1815,13 +1815,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1864,16 +1864,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1945,13 +1945,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -2153,13 +2153,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H55" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:8">
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>3</x:v>
@@ -2439,13 +2439,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>17</x:v>
@@ -2647,13 +2647,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:8">
@@ -2748,7 +2748,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
         <x:v>17</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>12</x:v>
@@ -3037,13 +3037,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -931,13 +931,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>81</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>48</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>40</x:v>
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>17</x:v>
@@ -2748,7 +2748,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
         <x:v>17</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>48</x:v>
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1240,7 +1240,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
         <x:v>2</x:v>
@@ -1344,16 +1344,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1370,16 +1370,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>8</x:v>
@@ -1760,16 +1760,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>15</x:v>
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>14</x:v>
@@ -2488,7 +2488,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
         <x:v>7</x:v>
@@ -2569,13 +2569,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>10</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>25</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>48</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>45</x:v>
@@ -1318,7 +1318,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
         <x:v>0</x:v>
@@ -1451,13 +1451,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1659,13 +1659,13 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>15</x:v>
@@ -1867,13 +1867,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -2023,13 +2023,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2283,13 +2283,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:8">
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>10</x:v>
@@ -2413,13 +2413,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>14</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>17</x:v>
@@ -2725,13 +2725,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2748,16 +2748,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2800,16 +2800,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -798,16 +798,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -931,13 +931,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>8</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>81</x:v>
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>26</x:v>
@@ -1555,13 +1555,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>11</x:v>
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>8</x:v>
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>15</x:v>
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>15</x:v>
@@ -1815,13 +1815,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1942,7 +1942,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>34</x:v>
@@ -2436,16 +2436,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2488,16 +2488,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H68" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:8">
@@ -2540,16 +2540,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2595,13 +2595,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2670,7 +2670,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
         <x:v>5</x:v>
@@ -2751,13 +2751,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2800,7 +2800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>8</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>8</x:v>
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1630,7 +1630,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
         <x:v>2</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>27</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>15</x:v>
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>14</x:v>
@@ -1864,7 +1864,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
         <x:v>14</x:v>
@@ -1890,7 +1890,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
         <x:v>12</x:v>
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>35</x:v>
@@ -2358,16 +2358,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>14</x:v>
@@ -2670,16 +2670,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:8">
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>15</x:v>
@@ -2800,7 +2800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>8</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>14</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>15</x:v>
@@ -2852,7 +2852,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
         <x:v>2</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -775,13 +775,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -902,16 +902,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -954,16 +954,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1136,7 +1136,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>4</x:v>
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1373,13 +1373,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1422,7 +1422,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>4</x:v>
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>27</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>15</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>9</x:v>
@@ -1945,13 +1945,13 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -2361,13 +2361,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2543,13 +2543,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2803,13 +2803,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:8">
@@ -2982,7 +2982,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
         <x:v>3</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -957,13 +957,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>15</x:v>
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>15</x:v>
@@ -1815,13 +1815,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1893,13 +1893,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2306,16 +2306,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>9</x:v>
@@ -2569,13 +2569,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>18</x:v>
@@ -2644,16 +2644,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:8">
@@ -2673,13 +2673,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:8">
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -850,7 +850,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>3</x:v>
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>45</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>11</x:v>
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>8</x:v>
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>17</x:v>
@@ -1890,16 +1890,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>3</x:v>
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>17</x:v>
@@ -2488,7 +2488,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
         <x:v>9</x:v>
@@ -2566,16 +2566,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>14</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1474,16 +1474,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>11</x:v>
@@ -2072,7 +2072,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
         <x:v>1</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>45</x:v>
@@ -1240,7 +1240,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
         <x:v>2</x:v>
@@ -1373,13 +1373,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1425,13 +1425,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1451,13 +1451,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1500,16 +1500,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H30" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8">
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>11</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>42</x:v>
@@ -1789,13 +1789,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>39</x:v>
@@ -2046,7 +2046,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
         <x:v>8</x:v>
@@ -2176,7 +2176,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
         <x:v>2</x:v>
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>21</x:v>
@@ -2462,16 +2462,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2595,13 +2595,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>17</x:v>
@@ -2800,7 +2800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>9</x:v>
@@ -2826,7 +2826,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
         <x:v>6</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -778,10 +778,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -804,10 +804,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -830,10 +830,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -882,10 +882,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -908,10 +908,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -934,10 +934,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -954,16 +954,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -986,10 +986,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -1090,10 +1090,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -1116,10 +1116,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1142,10 +1142,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -1168,10 +1168,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>45</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1220,10 +1220,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1246,10 +1246,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
@@ -1324,10 +1324,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
@@ -1350,10 +1350,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1376,10 +1376,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1402,10 +1402,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1428,10 +1428,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1454,10 +1454,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1480,10 +1480,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1532,10 +1532,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8">
@@ -1558,10 +1558,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
@@ -1584,10 +1584,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1610,10 +1610,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1636,10 +1636,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8">
@@ -1662,10 +1662,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1688,10 +1688,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,16 +1708,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1740,10 +1740,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:8">
@@ -1766,10 +1766,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1792,10 +1792,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1818,10 +1818,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1844,10 +1844,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1870,10 +1870,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1896,10 +1896,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -1922,10 +1922,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1948,10 +1948,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1974,10 +1974,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>39</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2020,16 +2020,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2104,10 +2104,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H53" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:8">
@@ -2156,10 +2156,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H55" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:8">
@@ -2182,10 +2182,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H56" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:8">
@@ -2208,10 +2208,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:8">
@@ -2260,10 +2260,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:8">
@@ -2286,10 +2286,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:8">
@@ -2312,10 +2312,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2332,16 +2332,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2364,10 +2364,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2390,10 +2390,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2416,10 +2416,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2442,10 +2442,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2468,10 +2468,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2494,10 +2494,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H68" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:8">
@@ -2520,10 +2520,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H69" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:8">
@@ -2546,10 +2546,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2572,10 +2572,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2598,10 +2598,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2624,10 +2624,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2650,10 +2650,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:8">
@@ -2676,10 +2676,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:8">
@@ -2702,10 +2702,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2728,10 +2728,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2748,16 +2748,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2780,10 +2780,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2806,10 +2806,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:8">
@@ -2829,13 +2829,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:8">
@@ -2858,10 +2858,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G82" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H82" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:8">
@@ -2884,10 +2884,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G83" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H83" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:8">
@@ -2910,10 +2910,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G84" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H84" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:8">
@@ -2936,10 +2936,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G85" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H85" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:8">
@@ -2962,10 +2962,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G86" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H86" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:8">
@@ -2982,16 +2982,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:8">
@@ -3008,16 +3008,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F88" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G88" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H88" s="0" t="n">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="F88" s="0" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G88" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H88" s="0" t="n">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">
@@ -3040,10 +3040,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -775,13 +775,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -1191,13 +1191,13 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1396,16 +1396,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1451,13 +1451,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>15</x:v>
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -2049,13 +2049,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:8">
@@ -2569,13 +2569,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2751,13 +2751,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2829,13 +2829,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:8">
@@ -3037,13 +3037,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>29</x:v>
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>5</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>54</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>46</x:v>
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1578,16 +1578,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1604,16 +1604,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>15</x:v>
@@ -1786,16 +1786,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>39</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>20</x:v>
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>20</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>15</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1370,16 +1370,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>15</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>28</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>15</x:v>
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>15</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>12</x:v>
@@ -2696,16 +2696,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2800,7 +2800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>9</x:v>
@@ -3037,13 +3037,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>14</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>9</x:v>
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>20</x:v>
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>39</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>21</x:v>
@@ -2670,7 +2670,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
         <x:v>7</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>16</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>40</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>54</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>46</x:v>
@@ -1344,7 +1344,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>13</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>15</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>18</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -980,16 +980,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="n">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="n">
-        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>82</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1396,7 +1396,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>12</x:v>
@@ -1474,7 +1474,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
         <x:v>9</x:v>
@@ -2488,7 +2488,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
         <x:v>9</x:v>
@@ -2618,16 +2618,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>7</x:v>
@@ -2722,16 +2722,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>54</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>43</x:v>
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -2072,7 +2072,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
         <x:v>1</x:v>
@@ -2098,16 +2098,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H53" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:8">
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>3</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>12</x:v>
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>9</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>17</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>16</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>54</x:v>
@@ -1240,16 +1240,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
@@ -1552,16 +1552,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
@@ -1630,7 +1630,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
         <x:v>2</x:v>
@@ -2072,16 +2072,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:8">
@@ -2176,16 +2176,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H56" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:8">
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>20</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>43</x:v>
@@ -1708,16 +1708,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>16</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>5</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1165,13 +1165,13 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1191,13 +1191,13 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1217,13 +1217,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1243,13 +1243,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
@@ -1370,7 +1370,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>12</x:v>
@@ -1399,13 +1399,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>13</x:v>
@@ -1477,13 +1477,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1630,16 +1630,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8">
@@ -1711,13 +1711,13 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1737,13 +1737,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:8">
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1971,13 +1971,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -2075,13 +2075,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:8">
@@ -2491,13 +2491,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H68" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:8">
@@ -2543,13 +2543,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2592,16 +2592,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>7</x:v>
@@ -2699,13 +2699,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2722,16 +2722,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2800,7 +2800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>9</x:v>
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>11</x:v>
@@ -3037,13 +3037,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>5</x:v>
@@ -928,7 +928,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>9</x:v>
@@ -1032,7 +1032,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>1</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>47</x:v>
@@ -1344,16 +1344,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1396,16 +1396,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1578,16 +1578,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>43</x:v>
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>30</x:v>
@@ -1789,13 +1789,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>39</x:v>
@@ -2046,7 +2046,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
         <x:v>9</x:v>
@@ -2072,7 +2072,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
         <x:v>3</x:v>
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>3</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>21</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>17</x:v>
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>7</x:v>
@@ -2670,7 +2670,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
         <x:v>7</x:v>
@@ -2748,16 +2748,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>11</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>58</x:v>
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>13</x:v>
@@ -1760,7 +1760,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>10</x:v>
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>21</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>10</x:v>
@@ -2982,7 +2982,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
         <x:v>3</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>18</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -902,7 +902,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>3</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>47</x:v>
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>29</x:v>
@@ -1396,16 +1396,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>43</x:v>
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -2985,13 +2985,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:8">
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>11</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>18</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>47</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1708,16 +1708,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>10</x:v>
@@ -2410,16 +2410,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>18</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>31</x:v>
@@ -827,13 +827,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1191,13 +1191,13 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1347,13 +1347,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1399,13 +1399,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>13</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>46</x:v>
@@ -1815,13 +1815,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1838,16 +1838,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>39</x:v>
@@ -2046,7 +2046,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
         <x:v>9</x:v>
@@ -2332,16 +2332,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>12</x:v>
@@ -2387,13 +2387,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>10</x:v>
@@ -2439,13 +2439,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2465,13 +2465,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>17</x:v>
@@ -2595,13 +2595,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2696,16 +2696,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2725,13 +2725,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2800,16 +2800,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:8">
@@ -2829,13 +2829,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:8">
@@ -3011,13 +3011,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>11</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>86</x:v>
@@ -1136,7 +1136,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>4</x:v>
@@ -1165,13 +1165,13 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>29</x:v>
@@ -1448,16 +1448,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>8</x:v>
@@ -1760,7 +1760,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>10</x:v>
@@ -1786,16 +1786,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1916,7 +1916,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>9</x:v>
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>39</x:v>
@@ -2176,16 +2176,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H56" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:8">
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>10</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>11</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>12</x:v>
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>10</x:v>
@@ -2462,16 +2462,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2566,16 +2566,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2592,16 +2592,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2618,7 +2618,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
         <x:v>10</x:v>
@@ -2696,16 +2696,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2878,7 +2878,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
         <x:v>2</x:v>
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>12</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -824,16 +824,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -850,7 +850,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>3</x:v>
@@ -876,7 +876,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>2</x:v>
@@ -957,13 +957,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>51</x:v>
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1451,13 +1451,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>13</x:v>
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>8</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>46</x:v>
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>18</x:v>
@@ -1760,7 +1760,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>10</x:v>
@@ -1919,13 +1919,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1942,7 +1942,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>38</x:v>
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>22</x:v>
@@ -2023,13 +2023,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2306,16 +2306,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2332,16 +2332,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>24</x:v>
@@ -2566,16 +2566,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2722,16 +2722,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2826,16 +2826,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:8">
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>18</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -850,7 +850,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>3</x:v>
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>30</x:v>
@@ -1448,16 +1448,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1552,7 +1552,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>5</x:v>
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>8</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -2046,7 +2046,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
         <x:v>9</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>18</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>18</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -775,13 +775,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -827,13 +827,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -876,7 +876,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>2</x:v>
@@ -902,7 +902,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>3</x:v>
@@ -931,13 +931,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -957,13 +957,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1191,13 +1191,13 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1295,13 +1295,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8">
@@ -1321,13 +1321,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
@@ -1448,16 +1448,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>13</x:v>
@@ -1633,13 +1633,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8">
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1760,16 +1760,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1789,13 +1789,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1815,13 +1815,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1867,13 +1867,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1919,13 +1919,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1945,13 +1945,13 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -2049,13 +2049,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:8">
@@ -2205,13 +2205,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:8">
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>9</x:v>
@@ -2332,16 +2332,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2436,16 +2436,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2491,13 +2491,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H68" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:8">
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>21</x:v>
@@ -2595,13 +2595,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2647,13 +2647,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:8">
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2803,13 +2803,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:8">
@@ -2985,13 +2985,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:8">
@@ -3008,16 +3008,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">
@@ -3034,16 +3034,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -954,16 +954,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>163</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>91</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>52</x:v>
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>33</x:v>
@@ -1266,7 +1266,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
         <x:v>1</x:v>
@@ -1422,7 +1422,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>5</x:v>
@@ -1552,7 +1552,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>5</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>13</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>33</x:v>
@@ -2072,16 +2072,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:8">
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>18</x:v>
@@ -2514,7 +2514,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
         <x:v>8</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>22</x:v>
@@ -2748,16 +2748,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2904,7 +2904,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E84" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
         <x:v>3</x:v>
@@ -3008,16 +3008,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>63</x:v>
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1292,7 +1292,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
         <x:v>2</x:v>
@@ -1318,7 +1318,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
         <x:v>1</x:v>
@@ -1344,7 +1344,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>15</x:v>
@@ -1552,7 +1552,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>5</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>18</x:v>
@@ -2072,7 +2072,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
         <x:v>4</x:v>
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>9</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>13</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>12</x:v>
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>18</x:v>
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>10</x:v>
@@ -2488,7 +2488,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
         <x:v>11</x:v>
@@ -2540,16 +2540,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2618,7 +2618,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
         <x:v>10</x:v>
@@ -2829,13 +2829,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:8">
@@ -2852,16 +2852,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G82" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H82" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:8">
@@ -2982,16 +2982,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1292,16 +1292,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8">
@@ -1474,16 +1474,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1760,16 +1760,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1786,16 +1786,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1812,16 +1812,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -2020,7 +2020,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>9</x:v>
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>5</x:v>
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>10</x:v>
@@ -2488,7 +2488,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
         <x:v>11</x:v>
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>25</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>19</x:v>
@@ -2982,7 +2982,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
         <x:v>6</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>35</x:v>
@@ -879,13 +879,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -1113,13 +1113,13 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1136,16 +1136,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -1165,13 +1165,13 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1318,16 +1318,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
@@ -1344,16 +1344,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1370,7 +1370,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>12</x:v>
@@ -1396,7 +1396,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>16</x:v>
@@ -1422,7 +1422,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>5</x:v>
@@ -1630,16 +1630,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8">
@@ -1659,13 +1659,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1685,13 +1685,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1763,13 +1763,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1786,16 +1786,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1812,16 +1812,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>15</x:v>
@@ -1864,16 +1864,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1919,13 +1919,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2020,16 +2020,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2075,13 +2075,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:8">
@@ -2283,13 +2283,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:8">
@@ -2309,13 +2309,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2335,13 +2335,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2361,13 +2361,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2387,13 +2387,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2410,16 +2410,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2436,16 +2436,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2517,13 +2517,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H69" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:8">
@@ -2543,13 +2543,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2595,13 +2595,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2621,13 +2621,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2647,13 +2647,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:8">
@@ -2670,16 +2670,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:8">
@@ -2699,13 +2699,13 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2855,13 +2855,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G82" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H82" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:8">
@@ -2881,13 +2881,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G83" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H83" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:8">
@@ -2985,13 +2985,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:8">
@@ -3011,13 +3011,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -775,13 +775,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>8</x:v>
@@ -902,7 +902,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>3</x:v>
@@ -1370,7 +1370,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>12</x:v>
@@ -1396,7 +1396,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>16</x:v>
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>8</x:v>
@@ -1630,7 +1630,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
         <x:v>5</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>18</x:v>
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>15</x:v>
@@ -1890,7 +1890,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
         <x:v>14</x:v>
@@ -2176,7 +2176,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
         <x:v>3</x:v>
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>5</x:v>
@@ -2254,16 +2254,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:8">
@@ -2358,16 +2358,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2566,16 +2566,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2618,7 +2618,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
         <x:v>11</x:v>
@@ -2722,16 +2722,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2800,16 +2800,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:8">
@@ -2982,7 +2982,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
         <x:v>7</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -798,7 +798,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>14</x:v>
@@ -954,16 +954,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>39</x:v>
@@ -1344,7 +1344,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>16</x:v>
@@ -1396,7 +1396,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>16</x:v>
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,16 +1708,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>22</x:v>
@@ -1893,13 +1893,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -1997,13 +1997,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>5</x:v>
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>12</x:v>
@@ -2358,16 +2358,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2514,7 +2514,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
         <x:v>9</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>23</x:v>
@@ -3008,16 +3008,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>21</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>38</x:v>
@@ -798,7 +798,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>14</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>56</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>53</x:v>
@@ -1838,16 +1838,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>23</x:v>
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2020,7 +2020,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>10</x:v>
@@ -2176,7 +2176,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
         <x:v>3</x:v>
@@ -2254,7 +2254,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
         <x:v>5</x:v>
@@ -2306,16 +2306,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2332,16 +2332,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2358,16 +2358,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>12</x:v>
@@ -2618,16 +2618,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>20</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -775,13 +775,13 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -801,13 +801,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>8</x:v>
@@ -1032,16 +1032,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1321,13 +1321,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
@@ -1344,7 +1344,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>16</x:v>
@@ -1373,13 +1373,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1399,13 +1399,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1422,7 +1422,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>5</x:v>
@@ -1477,13 +1477,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1526,16 +1526,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="n">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="F31" s="0" t="n">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8">
@@ -1607,13 +1607,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1633,13 +1633,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8">
@@ -1659,13 +1659,13 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1685,13 +1685,13 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1760,16 +1760,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1789,13 +1789,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1815,13 +1815,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1867,13 +1867,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -2020,7 +2020,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>10</x:v>
@@ -2231,13 +2231,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H58" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:8">
@@ -2309,13 +2309,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2335,13 +2335,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2410,16 +2410,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2439,13 +2439,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2488,7 +2488,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
         <x:v>11</x:v>
@@ -2569,13 +2569,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2592,16 +2592,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2621,13 +2621,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2670,7 +2670,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
         <x:v>8</x:v>
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2803,13 +2803,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:8">
@@ -2904,7 +2904,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E84" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
         <x:v>3</x:v>
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>17</x:v>
@@ -3037,13 +3037,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -824,16 +824,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -850,7 +850,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>3</x:v>
@@ -928,7 +928,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>10</x:v>
@@ -1032,7 +1032,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>2</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>169</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>71</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>58</x:v>
@@ -1422,16 +1422,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>18</x:v>
@@ -1474,16 +1474,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>20</x:v>
@@ -1786,16 +1786,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>16</x:v>
@@ -2023,13 +2023,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2150,7 +2150,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
         <x:v>3</x:v>
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>14</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>16</x:v>
@@ -2358,16 +2358,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>13</x:v>
@@ -2436,16 +2436,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2462,16 +2462,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2670,16 +2670,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:8">
@@ -2696,16 +2696,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2722,16 +2722,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2748,7 +2748,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
         <x:v>22</x:v>
@@ -2800,7 +2800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>17</x:v>
@@ -2826,16 +2826,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:8">
@@ -2852,16 +2852,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G82" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H82" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:8">
@@ -2878,7 +2878,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
         <x:v>3</x:v>
@@ -2907,13 +2907,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G84" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H84" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:8">
@@ -3008,16 +3008,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>71</x:v>
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>42</x:v>
@@ -1240,16 +1240,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
@@ -1266,16 +1266,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="n">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="n">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8">
@@ -1318,16 +1318,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
@@ -1425,13 +1425,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1474,7 +1474,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
         <x:v>13</x:v>
@@ -1630,7 +1630,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
         <x:v>6</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>58</x:v>
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>38</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>20</x:v>
@@ -1760,16 +1760,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>26</x:v>
@@ -1890,7 +1890,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
         <x:v>15</x:v>
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>40</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -2020,16 +2020,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2046,7 +2046,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
         <x:v>11</x:v>
@@ -2098,7 +2098,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
         <x:v>3</x:v>
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>5</x:v>
@@ -2306,16 +2306,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>16</x:v>
@@ -2488,7 +2488,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
         <x:v>11</x:v>
@@ -2514,7 +2514,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
         <x:v>9</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>25</x:v>
@@ -2670,7 +2670,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
         <x:v>9</x:v>
@@ -2696,16 +2696,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>24</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>22</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -902,7 +902,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>3</x:v>
@@ -1058,7 +1058,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
         <x:v>1</x:v>
@@ -1165,13 +1165,13 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>58</x:v>
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>16</x:v>
@@ -2228,16 +2228,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="F58" s="0" t="n">
-        <x:v>3</x:v>
       </x:c>
       <x:c r="G58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H58" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:8">
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>16</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>25</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>24</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -798,7 +798,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>16</x:v>
@@ -928,7 +928,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>10</x:v>
@@ -1035,13 +1035,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>72</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>58</x:v>
@@ -1292,16 +1292,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8">
@@ -1370,7 +1370,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>13</x:v>
@@ -1422,7 +1422,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>8</x:v>
@@ -1578,16 +1578,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>58</x:v>
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>24</x:v>
@@ -1864,7 +1864,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
         <x:v>17</x:v>
@@ -2176,16 +2176,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H56" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:8">
@@ -2413,13 +2413,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>26</x:v>
@@ -2540,16 +2540,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2722,16 +2722,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2748,7 +2748,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
         <x:v>22</x:v>
@@ -2780,10 +2780,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2956,16 +2956,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F86" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G86" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H86" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:8">
@@ -2982,16 +2982,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:8">
@@ -3034,16 +3034,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -902,16 +902,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -928,7 +928,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>10</x:v>
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>15</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>72</x:v>
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1344,7 +1344,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>16</x:v>
@@ -1451,13 +1451,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>26</x:v>
@@ -1864,7 +1864,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
         <x:v>17</x:v>
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>11</x:v>
@@ -2306,16 +2306,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>16</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>18</x:v>
@@ -2413,13 +2413,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2439,13 +2439,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>22</x:v>
@@ -2670,7 +2670,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
         <x:v>9</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>22</x:v>
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2800,16 +2800,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:8">
@@ -2852,16 +2852,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G82" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H82" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:8">
@@ -2956,16 +2956,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="F86" s="0" t="n">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="G86" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H86" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:8">
@@ -3011,13 +3011,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">
@@ -3034,16 +3034,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -850,7 +850,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>3</x:v>
@@ -902,7 +902,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>5</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>99</x:v>
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1422,16 +1422,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1581,13 +1581,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1630,7 +1630,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
         <x:v>6</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>58</x:v>
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>15</x:v>
@@ -1760,16 +1760,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>26</x:v>
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>26</x:v>
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>11</x:v>
@@ -2592,16 +2592,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2696,16 +2696,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2852,16 +2852,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G82" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H82" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:8">
@@ -3008,16 +3008,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1032,7 +1032,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>3</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>99</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>58</x:v>
@@ -1734,16 +1734,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>43</x:v>
@@ -2228,7 +2228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
         <x:v>4</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>16</x:v>
@@ -2361,13 +2361,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>22</x:v>
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>29</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>21</x:v>
@@ -2852,7 +2852,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
         <x:v>7</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1422,7 +1422,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>10</x:v>
@@ -1760,16 +1760,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1812,16 +1812,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1838,16 +1838,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1864,7 +1864,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
         <x:v>17</x:v>
@@ -2020,16 +2020,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>15</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>99</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>62</x:v>
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>42</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>20</x:v>
@@ -1760,7 +1760,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>19</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>12</x:v>
@@ -1945,13 +1945,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>43</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>19</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>27</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>25</x:v>
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>43</x:v>
@@ -954,16 +954,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1032,16 +1032,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1370,16 +1370,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1396,16 +1396,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1422,7 +1422,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>10</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>43</x:v>
@@ -2280,16 +2280,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:8">
@@ -2436,16 +2436,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2465,10 +2465,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
         <x:v>34</x:v>
@@ -2543,10 +2543,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
         <x:v>39</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>23</x:v>
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>43</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>42</x:v>
@@ -1318,7 +1318,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
         <x:v>4</x:v>
@@ -1396,16 +1396,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1448,16 +1448,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1552,7 +1552,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>5</x:v>
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>38</x:v>
@@ -1708,16 +1708,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>25</x:v>
@@ -1864,7 +1864,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
         <x:v>17</x:v>
@@ -1916,16 +1916,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1942,7 +1942,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>42</x:v>
@@ -1968,7 +1968,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>26</x:v>
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2150,7 +2150,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
         <x:v>3</x:v>
@@ -2306,16 +2306,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>29</x:v>
@@ -2618,16 +2618,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>9</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -798,16 +798,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>62</x:v>
@@ -1344,16 +1344,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1555,13 +1555,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>21</x:v>
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>16</x:v>
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>17</x:v>
@@ -1942,7 +1942,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>42</x:v>
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>44</x:v>
@@ -2153,13 +2153,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H55" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:8">
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>12</x:v>
@@ -2384,16 +2384,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>26</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>22</x:v>
@@ -2982,7 +2982,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
         <x:v>8</x:v>
@@ -3008,16 +3008,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>44</x:v>
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1243,13 +1243,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
@@ -1396,16 +1396,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,16 +1708,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1760,7 +1760,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>19</x:v>
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>25</x:v>
@@ -1864,16 +1864,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2150,7 +2150,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
         <x:v>4</x:v>
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>5</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>16</x:v>
@@ -2358,16 +2358,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2384,16 +2384,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>15</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>26</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>22</x:v>
@@ -2592,16 +2592,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>9</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>23</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>25</x:v>
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2878,7 +2878,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
         <x:v>3</x:v>
@@ -2904,7 +2904,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E84" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
         <x:v>4</x:v>
@@ -3034,16 +3034,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -801,13 +801,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -853,13 +853,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -876,7 +876,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>3</x:v>
@@ -957,13 +957,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1035,13 +1035,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1321,13 +1321,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
@@ -1347,13 +1347,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1370,16 +1370,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1399,13 +1399,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1425,13 +1425,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1555,13 +1555,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
@@ -1581,13 +1581,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1604,16 +1604,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1633,13 +1633,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8">
@@ -1659,13 +1659,13 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1685,13 +1685,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,16 +1708,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1737,13 +1737,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:8">
@@ -1763,13 +1763,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1789,13 +1789,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1815,13 +1815,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1841,13 +1841,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1864,16 +1864,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1890,7 +1890,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
         <x:v>15</x:v>
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2023,13 +2023,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2101,13 +2101,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H53" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:8">
@@ -2231,13 +2231,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H58" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:8">
@@ -2257,13 +2257,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:8">
@@ -2283,13 +2283,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:8">
@@ -2309,13 +2309,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2335,13 +2335,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>21</x:v>
@@ -2413,13 +2413,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2439,13 +2439,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2517,13 +2517,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H69" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:8">
@@ -2540,16 +2540,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2569,13 +2569,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2618,16 +2618,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2673,13 +2673,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:8">
@@ -2699,13 +2699,13 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2725,13 +2725,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2777,13 +2777,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2803,13 +2803,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:8">
@@ -2930,7 +2930,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F85" s="0" t="n">
         <x:v>4</x:v>
@@ -2982,16 +2982,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:8">
@@ -3011,13 +3011,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>24</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>17</x:v>
@@ -1032,7 +1032,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>5</x:v>
@@ -1084,16 +1084,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="n">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="n">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1165,13 +1165,13 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1292,16 +1292,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8">
@@ -1370,7 +1370,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>17</x:v>
@@ -1396,16 +1396,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1422,7 +1422,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>13</x:v>
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>20</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>16</x:v>
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>11</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,16 +1708,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1812,16 +1812,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1916,7 +1916,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>13</x:v>
@@ -1945,13 +1945,13 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -2020,7 +2020,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>13</x:v>
@@ -2202,16 +2202,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:8">
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>17</x:v>
@@ -2358,16 +2358,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2436,16 +2436,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>26</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>24</x:v>
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>26</x:v>
@@ -2751,13 +2751,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2826,7 +2826,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
         <x:v>14</x:v>
@@ -3008,16 +3008,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -798,7 +798,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>18</x:v>
@@ -902,16 +902,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -928,16 +928,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -1032,16 +1032,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>185</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1240,16 +1240,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
@@ -1370,16 +1370,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1396,7 +1396,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>23</x:v>
@@ -1422,16 +1422,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>20</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>16</x:v>
@@ -1604,16 +1604,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1630,16 +1630,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8">
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>25</x:v>
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>22</x:v>
@@ -1890,16 +1890,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -2335,13 +2335,13 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2358,16 +2358,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2384,16 +2384,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>30</x:v>
@@ -2462,16 +2462,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2514,7 +2514,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
         <x:v>10</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>24</x:v>
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>30</x:v>
@@ -2618,16 +2618,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2722,16 +2722,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2748,7 +2748,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
         <x:v>23</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>26</x:v>
@@ -2829,13 +2829,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:8">
@@ -2878,7 +2878,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
         <x:v>3</x:v>
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>24</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -824,16 +824,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -850,7 +850,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>6</x:v>
@@ -902,7 +902,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>6</x:v>
@@ -1032,16 +1032,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -1084,7 +1084,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>1</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>189</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>141</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1344,7 +1344,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>19</x:v>
@@ -1370,16 +1370,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1422,7 +1422,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>16</x:v>
@@ -1448,7 +1448,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>20</x:v>
@@ -1604,16 +1604,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1682,7 +1682,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>42</x:v>
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>25</x:v>
@@ -1760,16 +1760,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1864,16 +1864,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1997,13 +1997,13 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2046,7 +2046,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
         <x:v>11</x:v>
@@ -2072,16 +2072,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:8">
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>6</x:v>
@@ -2254,7 +2254,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
         <x:v>6</x:v>
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>18</x:v>
@@ -2332,16 +2332,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>22</x:v>
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>22</x:v>
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>16</x:v>
@@ -2540,16 +2540,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>24</x:v>
@@ -2592,16 +2592,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2618,16 +2618,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>9</x:v>
@@ -2670,7 +2670,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
         <x:v>11</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>26</x:v>
@@ -2852,16 +2852,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G82" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H82" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:8">
@@ -3034,16 +3034,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -798,16 +798,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>10</x:v>
@@ -850,16 +850,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -876,16 +876,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -954,16 +954,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>194</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>154</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1136,7 +1136,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>5</x:v>
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>146</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>73</x:v>
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1240,7 +1240,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
         <x:v>5</x:v>
@@ -1266,7 +1266,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
         <x:v>2</x:v>
@@ -1292,16 +1292,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8">
@@ -1318,7 +1318,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
         <x:v>5</x:v>
@@ -1344,16 +1344,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1396,16 +1396,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1422,7 +1422,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>16</x:v>
@@ -1474,7 +1474,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
         <x:v>13</x:v>
@@ -1526,7 +1526,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
         <x:v>1</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>16</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>130</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,16 +1708,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>18</x:v>
@@ -1760,16 +1760,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1786,16 +1786,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1812,16 +1812,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1838,16 +1838,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1864,16 +1864,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1893,13 +1893,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -1916,16 +1916,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1997,13 +1997,13 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2020,7 +2020,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>13</x:v>
@@ -2202,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>6</x:v>
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>14</x:v>
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>18</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>20</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>22</x:v>
@@ -2384,16 +2384,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2413,13 +2413,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>30</x:v>
@@ -2462,16 +2462,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2514,7 +2514,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
         <x:v>10</x:v>
@@ -2540,16 +2540,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>24</x:v>
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>31</x:v>
@@ -2618,7 +2618,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
         <x:v>19</x:v>
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>9</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>24</x:v>
@@ -2722,16 +2722,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2748,16 +2748,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2826,16 +2826,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:8">
@@ -2956,7 +2956,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F86" s="0" t="n">
         <x:v>3</x:v>
@@ -2982,7 +2982,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
         <x:v>9</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>10</x:v>
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>19</x:v>
@@ -1032,16 +1032,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>197</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>117</x:v>
@@ -1162,16 +1162,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>152</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>50</x:v>
@@ -1318,7 +1318,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
         <x:v>5</x:v>
@@ -1344,7 +1344,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>20</x:v>
@@ -1370,16 +1370,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1396,7 +1396,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>25</x:v>
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>13</x:v>
@@ -1633,13 +1633,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8">
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1708,16 +1708,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1786,16 +1786,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1838,7 +1838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>23</x:v>
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1994,7 +1994,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>49</x:v>
@@ -2046,16 +2046,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:8">
@@ -2150,7 +2150,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
         <x:v>4</x:v>
@@ -2176,16 +2176,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H56" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:8">
@@ -2202,16 +2202,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:8">
@@ -2254,16 +2254,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:8">
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>14</x:v>
@@ -2309,13 +2309,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>20</x:v>
@@ -2384,16 +2384,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2410,16 +2410,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>30</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>28</x:v>
@@ -2488,7 +2488,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
         <x:v>11</x:v>
@@ -2514,7 +2514,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
         <x:v>10</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>24</x:v>
@@ -2592,16 +2592,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2618,16 +2618,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2699,13 +2699,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2722,16 +2722,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2751,13 +2751,13 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2774,16 +2774,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2878,7 +2878,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
         <x:v>3</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -775,13 +775,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -827,13 +827,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -905,13 +905,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -931,13 +931,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -957,13 +957,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1113,13 +1113,13 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>158</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1165,13 +1165,13 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1191,13 +1191,13 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1217,13 +1217,13 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1347,13 +1347,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1399,13 +1399,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1451,13 +1451,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1477,13 +1477,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1529,13 +1529,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8">
@@ -1555,13 +1555,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
@@ -1581,13 +1581,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1607,13 +1607,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1659,13 +1659,13 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1685,13 +1685,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1711,13 +1711,13 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1763,13 +1763,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1789,13 +1789,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1815,13 +1815,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1841,13 +1841,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1893,13 +1893,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -1919,13 +1919,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1945,13 +1945,13 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1971,13 +1971,13 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1997,13 +1997,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2023,13 +2023,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2075,13 +2075,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:8">
@@ -2153,13 +2153,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H55" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:8">
@@ -2179,13 +2179,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H56" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:8">
@@ -2205,13 +2205,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:8">
@@ -2257,13 +2257,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:8">
@@ -2309,13 +2309,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2335,13 +2335,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2361,13 +2361,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2387,13 +2387,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2413,13 +2413,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2439,13 +2439,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2465,13 +2465,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2517,13 +2517,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H69" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:8">
@@ -2543,13 +2543,13 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2569,13 +2569,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2595,13 +2595,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2621,13 +2621,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2647,13 +2647,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:8">
@@ -2673,13 +2673,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:8">
@@ -2699,13 +2699,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2725,13 +2725,13 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2751,13 +2751,13 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:8">
@@ -2777,13 +2777,13 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2803,13 +2803,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:8">
@@ -2829,13 +2829,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:8">
@@ -2881,13 +2881,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G83" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H83" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:8">
@@ -2985,13 +2985,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:8">
@@ -3011,13 +3011,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">
@@ -3037,13 +3037,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1477,13 +1477,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1581,13 +1581,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1659,13 +1659,13 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1711,13 +1711,13 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -2153,13 +2153,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H55" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:8">
@@ -2777,13 +2777,13 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1165,13 +1165,13 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -2023,13 +2023,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2595,13 +2595,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2881,13 +2881,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G83" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H83" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -931,13 +931,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -1087,13 +1087,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -1139,13 +1139,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -1425,13 +1425,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1633,13 +1633,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8">
@@ -1685,13 +1685,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1711,13 +1711,13 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -2309,13 +2309,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2491,13 +2491,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H68" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1191,13 +1191,13 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1581,13 +1581,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1607,13 +1607,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1659,13 +1659,13 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1841,13 +1841,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -2231,13 +2231,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H58" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1113,13 +1113,13 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1191,13 +1191,13 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1789,13 +1789,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1971,13 +1971,13 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -2335,13 +2335,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2361,13 +2361,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2881,13 +2881,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G83" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H83" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -775,13 +775,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -801,13 +801,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -827,13 +827,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -853,13 +853,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -879,13 +879,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -905,13 +905,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -931,13 +931,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -957,13 +957,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -1035,13 +1035,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -1113,13 +1113,13 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>164</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1139,13 +1139,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -1165,13 +1165,13 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1191,13 +1191,13 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1217,13 +1217,13 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1243,13 +1243,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
@@ -1269,13 +1269,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8">
@@ -1321,13 +1321,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
@@ -1347,13 +1347,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1373,13 +1373,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1399,13 +1399,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1425,13 +1425,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1451,13 +1451,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1477,13 +1477,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1503,13 +1503,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H30" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8">
@@ -1555,13 +1555,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
@@ -1581,13 +1581,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1607,13 +1607,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1659,13 +1659,13 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1685,13 +1685,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1711,13 +1711,13 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1737,13 +1737,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:8">
@@ -1763,13 +1763,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1789,13 +1789,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1815,13 +1815,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1841,13 +1841,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1867,13 +1867,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1893,13 +1893,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -1919,13 +1919,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1945,13 +1945,13 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1971,13 +1971,13 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1997,13 +1997,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2023,13 +2023,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -2049,13 +2049,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:8">
@@ -2075,13 +2075,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:8">
@@ -2153,13 +2153,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H55" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:8">
@@ -2179,13 +2179,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H56" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:8">
@@ -2205,13 +2205,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:8">
@@ -2283,13 +2283,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:8">
@@ -2309,13 +2309,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8">
@@ -2335,13 +2335,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8">
@@ -2361,13 +2361,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8">
@@ -2387,13 +2387,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2413,13 +2413,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2465,13 +2465,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8">
@@ -2491,13 +2491,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H68" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:8">
@@ -2517,13 +2517,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H69" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:8">
@@ -2543,13 +2543,13 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2569,13 +2569,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2595,13 +2595,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2621,13 +2621,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2647,13 +2647,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:8">
@@ -2673,13 +2673,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:8">
@@ -2699,13 +2699,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2725,13 +2725,13 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2777,13 +2777,13 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:8">
@@ -2829,13 +2829,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:8">
@@ -2855,13 +2855,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G82" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H82" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:8">
@@ -2881,13 +2881,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G83" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H83" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:8">
@@ -2959,13 +2959,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F86" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G86" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H86" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:8">
@@ -2985,13 +2985,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:8">
@@ -3011,13 +3011,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">
@@ -3037,13 +3037,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -2725,13 +2725,13 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1659,13 +1659,13 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1789,13 +1789,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -2595,13 +2595,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8">
@@ -2647,13 +2647,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_Superior.xlsx
@@ -1711,13 +1711,13 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
